--- a/FinalProject/Task3.1_compiler_flags_timings.xlsx
+++ b/FinalProject/Task3.1_compiler_flags_timings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rwthaachende-my.sharepoint.com/personal/johannes_grafen_rwth-aachen_de/Documents/Master/Parallel Computing/Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannes/Desktop/FinalProjectRepo/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{27183B06-ECB4-BE4E-8C7A-5BD5CC8488FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6C53AB7-2086-2140-8A60-DD8DFFEE361A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF27046-3F9B-524F-8CAE-3217B92B169B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19240" xr2:uid="{6B4E4AA2-3035-864C-8DD5-DA8FECADD3F7}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="19240" xr2:uid="{6B4E4AA2-3035-864C-8DD5-DA8FECADD3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,19 +641,8 @@
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
-        <v>56.57</v>
-      </c>
-      <c r="C9">
-        <v>56.03</v>
-      </c>
-      <c r="D9">
-        <v>54.19</v>
-      </c>
-      <c r="E9" s="7">
-        <f>AVERAGE(B9,C9,D9,F9,G9,H9)</f>
-        <v>55.865000000000002</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="E9" s="7"/>
       <c r="F9">
         <v>59.08</v>
       </c>
@@ -724,7 +713,7 @@
       </c>
       <c r="E14" s="10">
         <f>MIN(E3:E12)</f>
-        <v>55.865000000000002</v>
+        <v>55.956666666666671</v>
       </c>
     </row>
   </sheetData>

--- a/FinalProject/Task3.1_compiler_flags_timings.xlsx
+++ b/FinalProject/Task3.1_compiler_flags_timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannes/Desktop/FinalProjectRepo/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF27046-3F9B-524F-8CAE-3217B92B169B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22994515-9357-EF4F-86BE-234586D36185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="19240" xr2:uid="{6B4E4AA2-3035-864C-8DD5-DA8FECADD3F7}"/>
+    <workbookView xWindow="1400" yWindow="660" windowWidth="38400" windowHeight="19240" xr2:uid="{6B4E4AA2-3035-864C-8DD5-DA8FECADD3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>-O3 -fp-model fast=2</t>
   </si>
   <si>
-    <t>-O3 -ipo -finline-functions</t>
-  </si>
-  <si>
     <t>-O3 -ipo</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>-Ofast</t>
+  </si>
+  <si>
+    <t>-O3 -axSKYLAKE-AVX512</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,23 +639,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="E9" s="7"/>
-      <c r="F9">
-        <v>59.08</v>
-      </c>
-      <c r="G9">
-        <v>54.49</v>
-      </c>
-      <c r="H9">
-        <v>54.83</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>53.99</v>
+      </c>
+      <c r="C9">
+        <v>54.06</v>
+      </c>
+      <c r="D9">
+        <v>56.25</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>54.766666666666673</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>54.57</v>
@@ -691,7 +693,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
         <v>55.43</v>
@@ -709,11 +711,11 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="10">
         <f>MIN(E3:E12)</f>
-        <v>55.956666666666671</v>
+        <v>54.766666666666673</v>
       </c>
     </row>
   </sheetData>
